--- a/sirene-api/rest-client-requests/responses/comparaison_stock_api.xlsx
+++ b/sirene-api/rest-client-requests/responses/comparaison_stock_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_response_csv" sheetId="1" r:id="rId1"/>
@@ -1229,11 +1229,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dessinstocketablissement_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dessinstocketablissement" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dessinstocketablissement" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dessinstocketablissement_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1509,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -4878,10 +4878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4891,9 +4891,10 @@
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4926,8 +4927,12 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>CONCATENATE("'",A2,"',")</f>
+        <v>'siren',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4943,8 +4948,12 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G49" si="0">CONCATENATE("'",A3,"',")</f>
+        <v>'nic',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4960,8 +4969,12 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>'siret',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4977,8 +4990,12 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>'statutDiffusionEtablissement',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4994,8 +5011,12 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>'dateCreationEtablissement',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5011,8 +5032,12 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>'trancheEffectifsEtablissement',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5028,8 +5053,12 @@
       <c r="E8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>'anneeEffectifsEtablissement',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5045,8 +5074,12 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>'activitePrincipaleRegistreMetiersEtablissement',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5062,8 +5095,12 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>'dateDernierTraitementEtablissement',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5079,8 +5116,12 @@
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>'etablissementSiege',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5096,8 +5137,12 @@
       <c r="E12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>'nombrePeriodesEtablissement',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -5113,8 +5158,12 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>'complementAdresseEtablissement',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -5130,8 +5179,12 @@
       <c r="E14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>'numeroVoieEtablissement',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -5147,8 +5200,12 @@
       <c r="E15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>'indiceRepetitionEtablissement',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -5164,8 +5221,12 @@
       <c r="E16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>'typeVoieEtablissement',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -5181,8 +5242,12 @@
       <c r="E17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>'libelleVoieEtablissement',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -5198,8 +5263,12 @@
       <c r="E18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>'codePostalEtablissement',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -5215,8 +5284,12 @@
       <c r="E19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>'libelleCommuneEtablissement',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -5232,8 +5305,12 @@
       <c r="E20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>'libelleCommuneEtrangerEtablissement',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -5249,8 +5326,12 @@
       <c r="E21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>'distributionSpecialeEtablissement',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -5266,8 +5347,12 @@
       <c r="E22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>'codeCommuneEtablissement',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -5283,8 +5368,12 @@
       <c r="E23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>'codeCedexEtablissement',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -5300,8 +5389,12 @@
       <c r="E24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>'libelleCedexEtablissement',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -5317,8 +5410,12 @@
       <c r="E25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>'codePaysEtrangerEtablissement',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -5334,8 +5431,12 @@
       <c r="E26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>'libellePaysEtrangerEtablissement',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -5351,8 +5452,12 @@
       <c r="E27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>'complementAdresse2Etablissement',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -5368,8 +5473,12 @@
       <c r="E28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>'numeroVoie2Etablissement',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5385,8 +5494,12 @@
       <c r="E29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>'indiceRepetition2Etablissement',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -5402,8 +5515,12 @@
       <c r="E30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>'typeVoie2Etablissement',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -5419,8 +5536,12 @@
       <c r="E31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>'libelleVoie2Etablissement',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5436,8 +5557,12 @@
       <c r="E32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>'codePostal2Etablissement',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -5453,8 +5578,12 @@
       <c r="E33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>'libelleCommune2Etablissement',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5470,8 +5599,12 @@
       <c r="E34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>'libelleCommuneEtranger2Etablissement',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -5487,8 +5620,12 @@
       <c r="E35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>'distributionSpeciale2Etablissement',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -5504,8 +5641,12 @@
       <c r="E36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>'codeCommune2Etablissement',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -5521,8 +5662,12 @@
       <c r="E37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>'codeCedex2Etablissement',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -5538,8 +5683,12 @@
       <c r="E38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>'libelleCedex2Etablissement',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -5555,8 +5704,12 @@
       <c r="E39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>'codePaysEtranger2Etablissement',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -5572,8 +5725,12 @@
       <c r="E40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>'libellePaysEtranger2Etablissement',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -5589,8 +5746,12 @@
       <c r="E41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>'dateDebut',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -5606,8 +5767,12 @@
       <c r="E42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>'etatAdministratifEtablissement',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -5623,8 +5788,12 @@
       <c r="E43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>'enseigne1Etablissement',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -5640,8 +5809,12 @@
       <c r="E44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>'enseigne2Etablissement',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -5657,8 +5830,12 @@
       <c r="E45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>'enseigne3Etablissement',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -5674,8 +5851,12 @@
       <c r="E46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>'denominationUsuelleEtablissement',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -5691,8 +5872,12 @@
       <c r="E47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>'activitePrincipaleEtablissement',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -5708,8 +5893,12 @@
       <c r="E48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>'nomenclatureActivitePrincipaleEtablissement',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -5724,6 +5913,10 @@
       </c>
       <c r="E49">
         <v>48</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>'caractereEmployeurEtablissement',</v>
       </c>
     </row>
   </sheetData>

--- a/sirene-api/rest-client-requests/responses/comparaison_stock_api.xlsx
+++ b/sirene-api/rest-client-requests/responses/comparaison_stock_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="api_response_csv" sheetId="1" r:id="rId1"/>
@@ -1513,83 +1513,83 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="32.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="32.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="40.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="35.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="32.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="19.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="40.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="28.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="36.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="31.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="24.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="37.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="30.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="73" max="75" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="33.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="29.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="42.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>95</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>143</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>163</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>172</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>172</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>172</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>172</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>172</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>172</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>172</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>172</v>
       </c>
@@ -4878,23 +4878,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4931,8 +4931,12 @@
         <f>CONCATENATE("'",A2,"',")</f>
         <v>'siren',</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f>CONCATENATE(A2,",")</f>
+        <v>siren,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4952,8 +4956,12 @@
         <f t="shared" ref="G3:G49" si="0">CONCATENATE("'",A3,"',")</f>
         <v>'nic',</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H49" si="1">CONCATENATE(A3,",")</f>
+        <v>nic,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4973,8 +4981,12 @@
         <f t="shared" si="0"/>
         <v>'siret',</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>siret,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4994,8 +5006,12 @@
         <f t="shared" si="0"/>
         <v>'statutDiffusionEtablissement',</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>statutDiffusionEtablissement,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5015,8 +5031,12 @@
         <f t="shared" si="0"/>
         <v>'dateCreationEtablissement',</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>dateCreationEtablissement,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5036,8 +5056,12 @@
         <f t="shared" si="0"/>
         <v>'trancheEffectifsEtablissement',</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>trancheEffectifsEtablissement,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5057,8 +5081,12 @@
         <f t="shared" si="0"/>
         <v>'anneeEffectifsEtablissement',</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>anneeEffectifsEtablissement,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5078,8 +5106,12 @@
         <f t="shared" si="0"/>
         <v>'activitePrincipaleRegistreMetiersEtablissement',</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>activitePrincipaleRegistreMetiersEtablissement,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5099,8 +5131,12 @@
         <f t="shared" si="0"/>
         <v>'dateDernierTraitementEtablissement',</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>dateDernierTraitementEtablissement,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5120,8 +5156,12 @@
         <f t="shared" si="0"/>
         <v>'etablissementSiege',</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>etablissementSiege,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5141,8 +5181,12 @@
         <f t="shared" si="0"/>
         <v>'nombrePeriodesEtablissement',</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>nombrePeriodesEtablissement,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -5162,8 +5206,12 @@
         <f t="shared" si="0"/>
         <v>'complementAdresseEtablissement',</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>complementAdresseEtablissement,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -5183,8 +5231,12 @@
         <f t="shared" si="0"/>
         <v>'numeroVoieEtablissement',</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>numeroVoieEtablissement,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -5204,8 +5256,12 @@
         <f t="shared" si="0"/>
         <v>'indiceRepetitionEtablissement',</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>indiceRepetitionEtablissement,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -5225,8 +5281,12 @@
         <f t="shared" si="0"/>
         <v>'typeVoieEtablissement',</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>typeVoieEtablissement,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -5246,8 +5306,12 @@
         <f t="shared" si="0"/>
         <v>'libelleVoieEtablissement',</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>libelleVoieEtablissement,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -5267,8 +5331,12 @@
         <f t="shared" si="0"/>
         <v>'codePostalEtablissement',</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>codePostalEtablissement,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -5288,8 +5356,12 @@
         <f t="shared" si="0"/>
         <v>'libelleCommuneEtablissement',</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>libelleCommuneEtablissement,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -5309,8 +5381,12 @@
         <f t="shared" si="0"/>
         <v>'libelleCommuneEtrangerEtablissement',</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>libelleCommuneEtrangerEtablissement,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -5330,8 +5406,12 @@
         <f t="shared" si="0"/>
         <v>'distributionSpecialeEtablissement',</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>distributionSpecialeEtablissement,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -5351,8 +5431,12 @@
         <f t="shared" si="0"/>
         <v>'codeCommuneEtablissement',</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>codeCommuneEtablissement,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -5372,8 +5456,12 @@
         <f t="shared" si="0"/>
         <v>'codeCedexEtablissement',</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>codeCedexEtablissement,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -5393,8 +5481,12 @@
         <f t="shared" si="0"/>
         <v>'libelleCedexEtablissement',</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>libelleCedexEtablissement,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -5414,8 +5506,12 @@
         <f t="shared" si="0"/>
         <v>'codePaysEtrangerEtablissement',</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>codePaysEtrangerEtablissement,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -5435,8 +5531,12 @@
         <f t="shared" si="0"/>
         <v>'libellePaysEtrangerEtablissement',</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>libellePaysEtrangerEtablissement,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -5456,8 +5556,12 @@
         <f t="shared" si="0"/>
         <v>'complementAdresse2Etablissement',</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>complementAdresse2Etablissement,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -5477,8 +5581,12 @@
         <f t="shared" si="0"/>
         <v>'numeroVoie2Etablissement',</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>numeroVoie2Etablissement,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5498,8 +5606,12 @@
         <f t="shared" si="0"/>
         <v>'indiceRepetition2Etablissement',</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>indiceRepetition2Etablissement,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -5519,8 +5631,12 @@
         <f t="shared" si="0"/>
         <v>'typeVoie2Etablissement',</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>typeVoie2Etablissement,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -5540,8 +5656,12 @@
         <f t="shared" si="0"/>
         <v>'libelleVoie2Etablissement',</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>libelleVoie2Etablissement,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5561,8 +5681,12 @@
         <f t="shared" si="0"/>
         <v>'codePostal2Etablissement',</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>codePostal2Etablissement,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -5582,8 +5706,12 @@
         <f t="shared" si="0"/>
         <v>'libelleCommune2Etablissement',</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>libelleCommune2Etablissement,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5603,8 +5731,12 @@
         <f t="shared" si="0"/>
         <v>'libelleCommuneEtranger2Etablissement',</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>libelleCommuneEtranger2Etablissement,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -5624,8 +5756,12 @@
         <f t="shared" si="0"/>
         <v>'distributionSpeciale2Etablissement',</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>distributionSpeciale2Etablissement,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -5645,8 +5781,12 @@
         <f t="shared" si="0"/>
         <v>'codeCommune2Etablissement',</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>codeCommune2Etablissement,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -5666,8 +5806,12 @@
         <f t="shared" si="0"/>
         <v>'codeCedex2Etablissement',</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>codeCedex2Etablissement,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -5687,8 +5831,12 @@
         <f t="shared" si="0"/>
         <v>'libelleCedex2Etablissement',</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>libelleCedex2Etablissement,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -5708,8 +5856,12 @@
         <f t="shared" si="0"/>
         <v>'codePaysEtranger2Etablissement',</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>codePaysEtranger2Etablissement,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -5729,8 +5881,12 @@
         <f t="shared" si="0"/>
         <v>'libellePaysEtranger2Etablissement',</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>libellePaysEtranger2Etablissement,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -5750,8 +5906,12 @@
         <f t="shared" si="0"/>
         <v>'dateDebut',</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>dateDebut,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -5771,8 +5931,12 @@
         <f t="shared" si="0"/>
         <v>'etatAdministratifEtablissement',</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>etatAdministratifEtablissement,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -5792,8 +5956,12 @@
         <f t="shared" si="0"/>
         <v>'enseigne1Etablissement',</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>enseigne1Etablissement,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -5813,8 +5981,12 @@
         <f t="shared" si="0"/>
         <v>'enseigne2Etablissement',</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>enseigne2Etablissement,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -5834,8 +6006,12 @@
         <f t="shared" si="0"/>
         <v>'enseigne3Etablissement',</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>enseigne3Etablissement,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -5855,8 +6031,12 @@
         <f t="shared" si="0"/>
         <v>'denominationUsuelleEtablissement',</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>denominationUsuelleEtablissement,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -5876,8 +6056,12 @@
         <f t="shared" si="0"/>
         <v>'activitePrincipaleEtablissement',</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>activitePrincipaleEtablissement,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -5897,8 +6081,12 @@
         <f t="shared" si="0"/>
         <v>'nomenclatureActivitePrincipaleEtablissement',</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>nomenclatureActivitePrincipaleEtablissement,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -5917,6 +6105,10 @@
       <c r="G49" t="str">
         <f t="shared" si="0"/>
         <v>'caractereEmployeurEtablissement',</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>caractereEmployeurEtablissement,</v>
       </c>
     </row>
   </sheetData>
@@ -5926,22 +6118,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -5958,7 +6152,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5974,8 +6168,16 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>CONCATENATE("'",A2,"',")</f>
+        <v>'siren',</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(A2,",")</f>
+        <v>siren,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5991,8 +6193,16 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F34" si="0">CONCATENATE("'",A3,"',")</f>
+        <v>'statutDiffusionUniteLegale',</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G34" si="1">CONCATENATE(A3,",")</f>
+        <v>statutDiffusionUniteLegale,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6008,8 +6218,16 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>'unitePurgeeUniteLegale',</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>unitePurgeeUniteLegale,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -6025,8 +6243,16 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>'dateCreationUniteLegale',</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>dateCreationUniteLegale,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6042,8 +6268,16 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>'sigleUniteLegale',</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>sigleUniteLegale,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6059,8 +6293,16 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>'sexeUniteLegale',</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>sexeUniteLegale,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -6076,8 +6318,16 @@
       <c r="E8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>'prenom1UniteLegale',</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>prenom1UniteLegale,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -6093,8 +6343,16 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>'prenom2UniteLegale',</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>prenom2UniteLegale,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -6110,8 +6368,16 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>'prenom3UniteLegale',</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>prenom3UniteLegale,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -6127,8 +6393,16 @@
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>'prenom4UniteLegale',</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>prenom4UniteLegale,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -6144,8 +6418,16 @@
       <c r="E12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>'prenomUsuelUniteLegale',</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>prenomUsuelUniteLegale,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -6161,8 +6443,16 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>'pseudonymeUniteLegale',</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>pseudonymeUniteLegale,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -6178,8 +6468,16 @@
       <c r="E14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>'identifiantAssociationUniteLegale',</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>identifiantAssociationUniteLegale,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -6195,8 +6493,16 @@
       <c r="E15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>'trancheEffectifsUniteLegale',</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>trancheEffectifsUniteLegale,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -6212,8 +6518,16 @@
       <c r="E16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>'anneeEffectifsUniteLegale',</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>anneeEffectifsUniteLegale,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -6229,8 +6543,16 @@
       <c r="E17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>'dateDernierTraitementUniteLegale',</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>dateDernierTraitementUniteLegale,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>306</v>
       </c>
@@ -6246,8 +6568,16 @@
       <c r="E18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>'nombrePeriodesUniteLegale',</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>nombrePeriodesUniteLegale,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -6263,8 +6593,16 @@
       <c r="E19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>'categorieEntreprise',</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>categorieEntreprise,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -6280,8 +6618,16 @@
       <c r="E20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>'anneeCategorieEntreprise',</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>anneeCategorieEntreprise,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -6297,8 +6643,16 @@
       <c r="E21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>'dateDebut',</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>dateDebut,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6314,8 +6668,16 @@
       <c r="E22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>'etatAdministratifUniteLegale',</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>etatAdministratifUniteLegale,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -6331,8 +6693,16 @@
       <c r="E23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>'nomUniteLegale',</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>nomUniteLegale,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6348,8 +6718,16 @@
       <c r="E24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>'nomUsageUniteLegale',</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>nomUsageUniteLegale,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -6365,8 +6743,16 @@
       <c r="E25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>'denominationUniteLegale',</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>denominationUniteLegale,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -6382,8 +6768,16 @@
       <c r="E26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>'denominationUsuelle1UniteLegale',</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>denominationUsuelle1UniteLegale,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -6399,8 +6793,16 @@
       <c r="E27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>'denominationUsuelle2UniteLegale',</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>denominationUsuelle2UniteLegale,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -6416,8 +6818,16 @@
       <c r="E28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>'denominationUsuelle3UniteLegale',</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>denominationUsuelle3UniteLegale,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -6433,8 +6843,16 @@
       <c r="E29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>'categorieJuridiqueUniteLegale',</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>categorieJuridiqueUniteLegale,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -6450,8 +6868,16 @@
       <c r="E30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>'activitePrincipaleUniteLegale',</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>activitePrincipaleUniteLegale,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -6467,8 +6893,16 @@
       <c r="E31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>'nomenclatureActivitePrincipaleUniteLegale',</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>nomenclatureActivitePrincipaleUniteLegale,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6484,8 +6918,16 @@
       <c r="E32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>'nicSiegeUniteLegale',</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>nicSiegeUniteLegale,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -6501,8 +6943,16 @@
       <c r="E33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>'economieSocialeSolidaireUniteLegale',</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>economieSocialeSolidaireUniteLegale,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -6517,6 +6967,14 @@
       </c>
       <c r="E34">
         <v>33</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>'caractereEmployeurUniteLegale',</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>caractereEmployeurUniteLegale,</v>
       </c>
     </row>
   </sheetData>
